--- a/data/outplant/baywater/outplant_metadata_baywater.xlsx
+++ b/data/outplant/baywater/outplant_metadata_baywater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/outplant/baywater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95D638F-2ECA-8E4B-A10D-EE142A678305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38C7874-A5F7-A14C-B8F4-2409A95F7F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="12320" windowHeight="17760" xr2:uid="{0DAF8851-3CE0-B641-BA5A-C7AC4208D2FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>treatment</t>
   </si>
@@ -59,28 +59,10 @@
     <t>number</t>
   </si>
   <si>
-    <t xml:space="preserve">top of health stack, largest group, all field tags are small green tags </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bottom of stack </t>
-  </si>
-  <si>
     <t xml:space="preserve">logger </t>
   </si>
   <si>
     <t>rearing_tank</t>
-  </si>
-  <si>
-    <t>Treated4</t>
-  </si>
-  <si>
-    <t>Control1</t>
-  </si>
-  <si>
-    <t>Treated5</t>
-  </si>
-  <si>
-    <t>Control2</t>
   </si>
   <si>
     <t>deploy.date</t>
@@ -111,19 +93,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -147,9 +122,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD65DDB-7482-D846-9B42-22485EDC3B2E}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,7 +477,7 @@
     <col min="18" max="18" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -514,53 +488,50 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>33</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>22023399</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>20250710</v>
+        <v>20250820</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>34</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -568,257 +539,83 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>22023398</v>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>20250710</v>
+        <v>20250820</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>49</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>20250820</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>323</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>20250820</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>20250710</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>20250710</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>31</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>20250710</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>20250710</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>40</v>
-      </c>
-      <c r="B8">
+        <v>20250820</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>20250710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>20250710</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>326</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>20250820</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>325</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11">
-        <v>20250820</v>
-      </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>327</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>20250820</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>323</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>20250820</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>324</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>20250820</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/outplant/baywater/outplant_metadata_baywater.xlsx
+++ b/data/outplant/baywater/outplant_metadata_baywater.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/outplant/baywater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38C7874-A5F7-A14C-B8F4-2409A95F7F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339A9130-CC58-1E40-9131-970220855929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="12320" windowHeight="17760" xr2:uid="{0DAF8851-3CE0-B641-BA5A-C7AC4208D2FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>treatment</t>
   </si>
@@ -80,13 +80,19 @@
     <t>larger oysters, not in mesh bag; refer to image for number and size estimates</t>
   </si>
   <si>
-    <t>small oysters, in mesh bag; refer to image for number and size measurements</t>
-  </si>
-  <si>
-    <t>small oysters, in mesh bag; refer to image for number and size measurements; refer to image for number and size estimates</t>
-  </si>
-  <si>
-    <t>small oysters, in mesh bag; refer to image for number and size; accidentally labeled as 326 in photo for measurements</t>
+    <t>trays</t>
+  </si>
+  <si>
+    <t>small oysters, in mesh bag (removed Nov 4); refer to image for number and size; accidentally labeled as 326 in photo for measurements</t>
+  </si>
+  <si>
+    <t>small oysters, in mesh bag (removed Nov 4); refer to image for number and size measurements; refer to image for number and size estimates</t>
+  </si>
+  <si>
+    <t>small oysters, in mesh bag (removed Nov 4); refer to image for number and size measurements</t>
+  </si>
+  <si>
+    <t>from health trays; source tag is purple tag from trays; new tags are yellow</t>
   </si>
 </sst>
 </file>
@@ -458,11 +464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD65DDB-7482-D846-9B42-22485EDC3B2E}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H6"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,7 +552,7 @@
         <v>20250820</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -569,7 +575,7 @@
         <v>20250820</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -615,7 +621,146 @@
         <v>20250820</v>
       </c>
       <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>362</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
+      </c>
+      <c r="G7">
+        <v>20251105</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>363</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>20251105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>22023395</v>
+      </c>
+      <c r="G9">
+        <v>20251105</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>378</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>20251105</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>382</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>20251105</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>381</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>20251105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>383</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>20251105</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>364</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>20251105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
